--- a/data/trans_camb/P1002-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>6,18</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,9</t>
+          <t>-1,48; 4,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 13,42</t>
+          <t>6,49; 12,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,31</t>
+          <t>4,07; 8,37</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,36%</t>
+          <t>72,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>59,62%</t>
+          <t>53,25%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 57,09</t>
+          <t>-13,69; 52,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,52; 116,35</t>
+          <t>45,47; 108,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,97; 85,8</t>
+          <t>32,11; 78,31</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,58</t>
+          <t>0,14; 3,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,11</t>
+          <t>-1,37; 2,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,96</t>
+          <t>-0,09; 2,42</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>82,14%</t>
+          <t>63,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>29,48%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,08; 159,86</t>
+          <t>4,08; 128,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 59,97</t>
+          <t>-19,23; 47,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 78,29</t>
+          <t>-1,82; 61,65</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,3</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 2,38</t>
+          <t>-2,24; 2,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,93</t>
+          <t>-0,26; 4,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,11</t>
+          <t>-0,66; 3,1</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>31,35%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 91,77</t>
+          <t>-45,12; 93,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 149,79</t>
+          <t>-5,88; 160,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 92,47</t>
+          <t>-13,75; 92,59</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,74</t>
+          <t>-1,29; 1,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,7</t>
+          <t>-0,47; 2,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,53</t>
+          <t>-0,27; 1,91</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>12,91%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 37,77</t>
+          <t>-21,94; 28,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,2; 46,85</t>
+          <t>-4,91; 37,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,94; 40,19</t>
+          <t>-3,51; 29,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1002-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,28</t>
+          <t>-0,06; 5,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,23</t>
+          <t>-3,61; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,55</t>
+          <t>-1,71; 4,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 13,07</t>
+          <t>6,66; 13,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,74</t>
+          <t>4,38; 11,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 12,63</t>
+          <t>6,3; 12,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,08</t>
+          <t>5,03; 9,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,49</t>
+          <t>1,88; 6,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,37</t>
+          <t>4,16; 8,74</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 72,21</t>
+          <t>-0,43; 68,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 25,64</t>
+          <t>-32,48; 20,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 52,94</t>
+          <t>-16,93; 50,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,4; 113,03</t>
+          <t>46,51; 112,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,07; 93,89</t>
+          <t>31,4; 94,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,47; 108,14</t>
+          <t>43,64; 107,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,08; 84,47</t>
+          <t>40,04; 87,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 59,39</t>
+          <t>14,95; 60,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,11; 78,31</t>
+          <t>32,95; 82,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,97</t>
+          <t>0,35; 3,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,0</t>
+          <t>0,6; 3,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,04</t>
+          <t>-0,08; 3,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,43</t>
+          <t>1,57; 5,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,21</t>
+          <t>-0,26; 3,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,47</t>
+          <t>-1,39; 2,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,62</t>
+          <t>1,45; 3,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,7</t>
+          <t>0,61; 2,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,42</t>
+          <t>-0,24; 2,41</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 129,65</t>
+          <t>10,25; 146,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,53; 129,1</t>
+          <t>16,07; 139,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 128,53</t>
+          <t>0,67; 140,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,47; 107,7</t>
+          <t>22,02; 100,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 63,06</t>
+          <t>-3,29; 63,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 47,73</t>
+          <t>-20,17; 43,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,78; 92,81</t>
+          <t>30,29; 95,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 71,54</t>
+          <t>11,77; 70,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 61,65</t>
+          <t>-4,89; 61,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,17</t>
+          <t>-2,83; 2,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,55</t>
+          <t>-3,22; 1,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,4</t>
+          <t>-2,43; 2,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,06</t>
+          <t>-2,85; 2,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,29</t>
+          <t>-3,03; 2,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,89</t>
+          <t>-0,26; 5,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,88</t>
+          <t>-2,12; 1,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,07</t>
+          <t>-2,19; 1,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,1</t>
+          <t>-0,39; 3,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,55; 83,85</t>
+          <t>-62,94; 97,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,37; 61,7</t>
+          <t>-63,92; 72,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 93,71</t>
+          <t>-47,47; 94,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 92,3</t>
+          <t>-46,62; 86,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 66,55</t>
+          <t>-46,62; 72,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 160,0</t>
+          <t>-4,43; 159,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 60,77</t>
+          <t>-43,72; 54,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,71; 35,34</t>
+          <t>-44,25; 43,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 92,59</t>
+          <t>-8,25; 95,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,64</t>
+          <t>0,26; 2,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,24</t>
+          <t>-0,95; 1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,36</t>
+          <t>-1,08; 1,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,86</t>
+          <t>4,05; 6,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,65</t>
+          <t>0,64; 3,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,96</t>
+          <t>-0,48; 3,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,57</t>
+          <t>2,55; 4,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,2</t>
+          <t>0,28; 2,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 1,91</t>
+          <t>-0,32; 1,87</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,83; 59,14</t>
+          <t>3,48; 57,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 26,8</t>
+          <t>-16,71; 27,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 28,29</t>
+          <t>-19,21; 32,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>40,94; 87,84</t>
+          <t>43,73; 89,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,87; 46,63</t>
+          <t>7,26; 47,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 37,56</t>
+          <t>-5,3; 38,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,75; 71,48</t>
+          <t>34,33; 69,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,65; 33,61</t>
+          <t>3,07; 33,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 29,56</t>
+          <t>-4,25; 28,84</t>
         </is>
       </c>
     </row>
